--- a/Avantis Mapping/SPARQL_superclass.xlsx
+++ b/Avantis Mapping/SPARQL_superclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB086F-A8C0-45D4-AB50-38BB4B3AE2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5A3B2-441B-405A-9B22-E2646F1CDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
@@ -41,21 +41,6 @@
     <t>TWONTO</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#air_duct_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#cable_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_gauge_or_display</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrumentation</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#electrical_panel_or_cabinet</t>
-  </si>
-  <si>
     <t>Meter</t>
   </si>
   <si>
@@ -77,6 +62,21 @@
   </si>
   <si>
     <t>Super_Class</t>
+  </si>
+  <si>
+    <t>instrumentation</t>
+  </si>
+  <si>
+    <t>air_duct_segment</t>
+  </si>
+  <si>
+    <t>cable_segment</t>
+  </si>
+  <si>
+    <t>electrical_panel_or_cabinet</t>
+  </si>
+  <si>
+    <t>instrument_gauge_or_display</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,47 +513,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Avantis Mapping/SPARQL_superclass.xlsx
+++ b/Avantis Mapping/SPARQL_superclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5A3B2-441B-405A-9B22-E2646F1CDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92C92C-CDF7-4F6C-BBEE-669BD72CD4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,47 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TWONTO</t>
   </si>
   <si>
-    <t>Meter</t>
-  </si>
-  <si>
     <t>Silencer</t>
   </si>
   <si>
     <t>Electrical Power Line</t>
   </si>
   <si>
-    <t>BUS bar greater than 750 volts_x000D_
-Control Panel,MCC_x000D_
-Motor Control Center_x000D_
-Motor Control Centre_x000D_
-Power Distribution Panel_x000D_
-Control Panel,MCC</t>
-  </si>
-  <si>
     <t>Pressure Indicator</t>
   </si>
   <si>
     <t>Super_Class</t>
   </si>
   <si>
-    <t>instrumentation</t>
-  </si>
-  <si>
-    <t>air_duct_segment</t>
-  </si>
-  <si>
-    <t>cable_segment</t>
-  </si>
-  <si>
-    <t>electrical_panel_or_cabinet</t>
-  </si>
-  <si>
-    <t>instrument_gauge_or_display</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX tw: &lt;http://www.toronto.ca/TWONTO#&gt;
+SELECT (STR(?label) as ?TWONTO) (STR(?object) as ?Avantis)
+WHERE { 
+    ?entityIRI tw:is_superclass_of_avantis_class ?object ;
+              rdfs:label ?label .
+}</t>
+  </si>
+  <si>
+    <t>instrument gauge or display</t>
+  </si>
+  <si>
+    <t>cable segment</t>
+  </si>
+  <si>
+    <t>air duct segment</t>
   </si>
 </sst>
 </file>
@@ -189,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A40142-39E5-42CA-9533-50AFBB2F55FD}" name="Table1" displayName="Table1" ref="A2:B7" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:B7" xr:uid="{D8A40142-39E5-42CA-9533-50AFBB2F55FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A40142-39E5-42CA-9533-50AFBB2F55FD}" name="Table1" displayName="Table1" ref="A2:B5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:B5" xr:uid="{D8A40142-39E5-42CA-9533-50AFBB2F55FD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{34BCA513-5439-4C7A-B816-5CB2BD0EC811}" name="TWONTO"/>
     <tableColumn id="2" xr3:uid="{FE07ACB4-50AE-40AB-B2F3-B5C5BACC68A9}" name="Super_Class"/>
@@ -496,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799550E-49B1-4512-9CC1-86876BA1337E}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,25 +503,30 @@
     <col min="2" max="2" width="61.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -534,26 +534,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Avantis Mapping/SPARQL_superclass.xlsx
+++ b/Avantis Mapping/SPARQL_superclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92C92C-CDF7-4F6C-BBEE-669BD72CD4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D84FD-BB73-48DA-B739-55D9128C163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,13 @@
 }</t>
   </si>
   <si>
-    <t>instrument gauge or display</t>
-  </si>
-  <si>
-    <t>cable segment</t>
-  </si>
-  <si>
-    <t>air duct segment</t>
+    <t>http://www.toronto.ca/TWONTO#air_duct_segment</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#cable_segment</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#instrument_gauge_or_display</t>
   </si>
 </sst>
 </file>
@@ -494,21 +494,21 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,15 +516,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -532,12 +532,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
